--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -792,7 +792,7 @@
       <c r="G3" s="6">
         <v>12</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>16</v>
       </c>
       <c r="I3" s="3">
@@ -858,8 +858,8 @@
       <c r="G4" s="6">
         <v>11</v>
       </c>
-      <c r="H4" s="3">
-        <v>13</v>
+      <c r="H4" s="6">
+        <v>12.2</v>
       </c>
       <c r="I4" s="3">
         <v>11</v>
@@ -924,7 +924,7 @@
       <c r="G5" s="6">
         <v>11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>8</v>
       </c>
       <c r="I5" s="3">
@@ -990,8 +990,8 @@
       <c r="G6" s="6">
         <v>8</v>
       </c>
-      <c r="H6" s="3">
-        <v>8</v>
+      <c r="H6" s="6">
+        <v>7.8</v>
       </c>
       <c r="I6" s="3">
         <v>10</v>
@@ -1142,8 +1142,8 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>20</v>
+      <c r="H9" s="6">
+        <v>12</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="J20">
         <f>SUM(G3:J19)</f>
-        <v>336.2</v>
+        <v>327.2</v>
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -795,8 +795,8 @@
       <c r="H3" s="6">
         <v>16</v>
       </c>
-      <c r="I3" s="3">
-        <v>10</v>
+      <c r="I3" s="6">
+        <v>20</v>
       </c>
       <c r="J3" s="3">
         <v>16</v>
@@ -861,8 +861,8 @@
       <c r="H4" s="6">
         <v>12.2</v>
       </c>
-      <c r="I4" s="3">
-        <v>11</v>
+      <c r="I4" s="6">
+        <v>12.8</v>
       </c>
       <c r="J4" s="3">
         <v>15</v>
@@ -927,8 +927,8 @@
       <c r="H5" s="6">
         <v>8</v>
       </c>
-      <c r="I5" s="3">
-        <v>9</v>
+      <c r="I5" s="6">
+        <v>7.3</v>
       </c>
       <c r="J5" s="3">
         <v>8</v>
@@ -993,8 +993,8 @@
       <c r="H6" s="6">
         <v>7.8</v>
       </c>
-      <c r="I6" s="3">
-        <v>10</v>
+      <c r="I6" s="6">
+        <v>8</v>
       </c>
       <c r="J6" s="3">
         <v>10</v>
@@ -1050,9 +1050,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>15</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
         <v>15</v>
@@ -1264,10 +1262,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6">
+        <v>10.3</v>
+      </c>
       <c r="J12" s="3">
         <v>10</v>
       </c>
@@ -1336,14 +1334,14 @@
         <v>39</v>
       </c>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>11</v>
+      <c r="H14" s="6">
+        <v>16</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1422,7 +1420,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
@@ -1459,9 +1457,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>12</v>
-      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4">
@@ -1496,8 +1492,8 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>11</v>
+      <c r="H18" s="6">
+        <v>10</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1559,7 +1555,7 @@
     <row r="20" spans="1:23">
       <c r="C20">
         <f>SUM(C3:C19)</f>
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F20">
         <f>SUM(D3:F19)</f>
@@ -1567,7 +1563,7 @@
       </c>
       <c r="J20">
         <f>SUM(G3:J19)</f>
-        <v>327.2</v>
+        <v>322.60000000000002</v>
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>13</v>
       </c>
       <c r="J8" s="3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <v>12</v>
       </c>
       <c r="J16" s="3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -798,7 +798,7 @@
       <c r="I3" s="6">
         <v>20</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>16</v>
       </c>
       <c r="K3" s="4">
@@ -930,8 +930,8 @@
       <c r="I5" s="6">
         <v>7.3</v>
       </c>
-      <c r="J5" s="3">
-        <v>8</v>
+      <c r="J5" s="6">
+        <v>12.08</v>
       </c>
       <c r="K5" s="4">
         <v>8</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="J20">
         <f>SUM(G3:J19)</f>
-        <v>322.60000000000002</v>
+        <v>326.68</v>
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -864,7 +864,7 @@
       <c r="I4" s="6">
         <v>12.8</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>15</v>
       </c>
       <c r="K4" s="4">
@@ -996,7 +996,7 @@
       <c r="I6" s="6">
         <v>8</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>10</v>
       </c>
       <c r="K6" s="4">
@@ -1052,9 +1052,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>15</v>
-      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4">
         <v>11</v>
@@ -1183,7 +1181,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1222,7 +1220,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>15</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4">
         <v>16</v>
@@ -1266,9 +1266,7 @@
       <c r="I12" s="6">
         <v>10.3</v>
       </c>
-      <c r="J12" s="3">
-        <v>10</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1304,9 +1302,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>10</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4">
         <v>8</v>
@@ -1382,7 +1378,9 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <v>10</v>
+      </c>
       <c r="K15" s="4">
         <v>5</v>
       </c>
@@ -1563,7 +1561,7 @@
       </c>
       <c r="J20">
         <f>SUM(G3:J19)</f>
-        <v>326.68</v>
+        <v>291.48000000000008</v>
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1180,9 +1180,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>2.8</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
@@ -1220,7 +1218,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>15</v>
       </c>
       <c r="K11" s="4"/>
@@ -1378,8 +1376,8 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <v>10</v>
+      <c r="J15" s="6">
+        <v>12.5</v>
       </c>
       <c r="K15" s="4">
         <v>5</v>
@@ -1561,7 +1559,7 @@
       </c>
       <c r="J20">
         <f>SUM(G3:J19)</f>
-        <v>291.48000000000008</v>
+        <v>291.18000000000006</v>
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -801,8 +801,8 @@
       <c r="J3" s="6">
         <v>16</v>
       </c>
-      <c r="K3" s="4">
-        <v>11</v>
+      <c r="K3" s="6">
+        <v>10</v>
       </c>
       <c r="L3" s="4">
         <v>9</v>
@@ -867,11 +867,9 @@
       <c r="J4" s="6">
         <v>15</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="4"/>
+      <c r="L4" s="6">
         <v>11</v>
-      </c>
-      <c r="L4" s="4">
-        <v>9</v>
       </c>
       <c r="M4" s="4">
         <v>10</v>
@@ -933,10 +931,8 @@
       <c r="J5" s="6">
         <v>12.08</v>
       </c>
-      <c r="K5" s="4">
-        <v>8</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="4"/>
+      <c r="L5" s="6">
         <v>10</v>
       </c>
       <c r="M5" s="4">
@@ -999,9 +995,7 @@
       <c r="J6" s="6">
         <v>10</v>
       </c>
-      <c r="K6" s="4">
-        <v>10</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4">
         <v>11</v>
       </c>
@@ -1099,9 +1093,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="4">
-        <v>11</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4">
         <v>15</v>
@@ -1143,9 +1135,7 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="4">
-        <v>20</v>
-      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
@@ -1379,9 +1369,7 @@
       <c r="J15" s="6">
         <v>12.5</v>
       </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1563,7 +1551,7 @@
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -807,8 +807,8 @@
       <c r="L3" s="4">
         <v>9</v>
       </c>
-      <c r="M3" s="4">
-        <v>10</v>
+      <c r="M3" s="7">
+        <v>15</v>
       </c>
       <c r="N3" s="4">
         <v>12</v>
@@ -935,7 +935,7 @@
       <c r="L5" s="6">
         <v>10</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="7">
         <v>10</v>
       </c>
       <c r="N5" s="4">
@@ -996,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="L6" s="7">
         <v>11</v>
       </c>
       <c r="M6" s="4">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -810,8 +810,8 @@
       <c r="M3" s="7">
         <v>15</v>
       </c>
-      <c r="N3" s="4">
-        <v>12</v>
+      <c r="N3" s="7">
+        <v>7</v>
       </c>
       <c r="O3" s="2">
         <v>11</v>
@@ -938,8 +938,8 @@
       <c r="M5" s="7">
         <v>10</v>
       </c>
-      <c r="N5" s="4">
-        <v>8</v>
+      <c r="N5" s="7">
+        <v>8.5</v>
       </c>
       <c r="O5" s="2">
         <v>8</v>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>
-        <v>308</v>
+        <v>303.5</v>
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="N11" sqref="N11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -874,8 +874,8 @@
       <c r="M4" s="4">
         <v>10</v>
       </c>
-      <c r="N4" s="4">
-        <v>12</v>
+      <c r="N4" s="7">
+        <v>10</v>
       </c>
       <c r="O4" s="2">
         <v>11</v>
@@ -1002,8 +1002,8 @@
       <c r="M6" s="4">
         <v>9</v>
       </c>
-      <c r="N6" s="4">
-        <v>10</v>
+      <c r="N6" s="7">
+        <v>15</v>
       </c>
       <c r="O6" s="2">
         <v>9</v>
@@ -1216,8 +1216,8 @@
         <v>16</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="4">
-        <v>14</v>
+      <c r="N11" s="7">
+        <v>9</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2">
@@ -1258,8 +1258,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>10</v>
+      <c r="N12" s="7">
+        <v>12</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -811,7 +811,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O3" s="2">
         <v>11</v>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>
-        <v>303.5</v>
+        <v>314.5</v>
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -231,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -355,6 +361,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -662,7 +669,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -941,8 +948,8 @@
       <c r="N5" s="7">
         <v>8.5</v>
       </c>
-      <c r="O5" s="2">
-        <v>8</v>
+      <c r="O5" s="14">
+        <v>11.9</v>
       </c>
       <c r="P5" s="2">
         <v>7</v>
@@ -1373,7 +1380,9 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="14">
+        <v>11</v>
+      </c>
       <c r="P15" s="2">
         <v>7</v>
       </c>
@@ -1412,7 +1421,9 @@
       <c r="M16" s="4">
         <v>5</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="14">
+        <v>5</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2">
@@ -1551,11 +1562,11 @@
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>
-        <v>314.5</v>
+        <v>319.5</v>
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>366</v>
+        <v>380.9</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -343,6 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,7 +362,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -669,7 +669,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -678,49 +678,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -811,9 +811,7 @@
       <c r="K3" s="6">
         <v>10</v>
       </c>
-      <c r="L3" s="4">
-        <v>9</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="7">
         <v>15</v>
       </c>
@@ -821,10 +819,10 @@
         <v>18</v>
       </c>
       <c r="O3" s="2">
-        <v>11</v>
-      </c>
-      <c r="P3" s="2">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="P3" s="7">
+        <v>4</v>
       </c>
       <c r="Q3" s="2">
         <v>9</v>
@@ -878,18 +876,12 @@
       <c r="L4" s="6">
         <v>11</v>
       </c>
-      <c r="M4" s="4">
-        <v>10</v>
-      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="7">
         <v>10</v>
       </c>
-      <c r="O4" s="2">
-        <v>11</v>
-      </c>
-      <c r="P4" s="2">
-        <v>15</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2">
         <v>11</v>
       </c>
@@ -948,11 +940,11 @@
       <c r="N5" s="7">
         <v>8.5</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="8">
         <v>11.9</v>
       </c>
-      <c r="P5" s="2">
-        <v>7</v>
+      <c r="P5" s="7">
+        <v>9.9</v>
       </c>
       <c r="Q5" s="2">
         <v>7</v>
@@ -1006,18 +998,12 @@
       <c r="L6" s="7">
         <v>11</v>
       </c>
-      <c r="M6" s="4">
-        <v>9</v>
-      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="7">
         <v>15</v>
       </c>
-      <c r="O6" s="2">
-        <v>9</v>
-      </c>
-      <c r="P6" s="2">
-        <v>10</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2">
         <v>10</v>
       </c>
@@ -1055,16 +1041,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <v>11</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4">
-        <v>15</v>
-      </c>
-      <c r="O7" s="2">
-        <v>15</v>
-      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2">
         <v>14</v>
@@ -1102,11 +1082,11 @@
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <v>15</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="7">
+        <v>6.5</v>
+      </c>
       <c r="P8" s="2">
         <v>10</v>
       </c>
@@ -1145,9 +1125,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4">
-        <v>17</v>
-      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2">
         <v>17</v>
@@ -1180,9 +1158,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4">
-        <v>16</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2">
@@ -1219,9 +1195,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="4">
-        <v>16</v>
-      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="7">
         <v>9</v>
@@ -1299,14 +1273,10 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4">
-        <v>8</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="2">
-        <v>12</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1337,14 +1307,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4">
-        <v>9</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="2">
-        <v>10</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1380,7 +1346,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="14">
+      <c r="O15" s="8">
         <v>11</v>
       </c>
       <c r="P15" s="2">
@@ -1418,10 +1384,8 @@
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4">
-        <v>5</v>
-      </c>
-      <c r="N16" s="14">
+      <c r="M16" s="4"/>
+      <c r="N16" s="8">
         <v>5</v>
       </c>
       <c r="O16" s="2"/>
@@ -1455,9 +1419,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <v>10</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="2"/>
@@ -1495,9 +1457,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>10</v>
-      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1530,9 +1490,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4">
-        <v>15</v>
-      </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1562,11 +1520,11 @@
       </c>
       <c r="N20">
         <f>SUM(K3:N19)</f>
-        <v>319.5</v>
+        <v>144.5</v>
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>380.9</v>
+        <v>294.3</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -669,7 +669,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -881,7 +881,9 @@
         <v>10</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2">
+        <v>10</v>
+      </c>
       <c r="Q4" s="2">
         <v>11</v>
       </c>
@@ -1524,7 +1526,7 @@
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>294.3</v>
+        <v>304.3</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -669,7 +669,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -824,7 +824,7 @@
       <c r="P3" s="7">
         <v>4</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="7">
         <v>9</v>
       </c>
       <c r="R3" s="2">
@@ -948,8 +948,8 @@
       <c r="P5" s="7">
         <v>9.9</v>
       </c>
-      <c r="Q5" s="2">
-        <v>7</v>
+      <c r="Q5" s="7">
+        <v>10</v>
       </c>
       <c r="R5" s="2">
         <v>6</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>304.3</v>
+        <v>307.3</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t>增艳车队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1535,6 +1559,59 @@
       <c r="W20">
         <f>SUM(W3:W19)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>6.07</v>
+      </c>
+      <c r="E26">
+        <v>6.07</v>
+      </c>
+      <c r="F26">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>5.76</v>
+      </c>
+      <c r="E27">
+        <v>5.81</v>
+      </c>
+      <c r="F27">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E28">
+        <v>4.97</v>
+      </c>
+      <c r="F28">
+        <v>5.85</v>
       </c>
     </row>
   </sheetData>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="Q3" s="7">
-        <v>9</v>
+        <v>17.8</v>
       </c>
       <c r="R3" s="2">
         <v>15</v>
@@ -905,12 +905,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>11</v>
-      </c>
+      <c r="P4" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" s="2">
         <v>13</v>
       </c>
@@ -973,7 +971,7 @@
         <v>9.9</v>
       </c>
       <c r="Q5" s="7">
-        <v>10</v>
+        <v>20.07</v>
       </c>
       <c r="R5" s="2">
         <v>6</v>
@@ -1030,8 +1028,8 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2">
-        <v>10</v>
+      <c r="Q6" s="7">
+        <v>11</v>
       </c>
       <c r="R6" s="2">
         <v>20</v>
@@ -1113,11 +1111,9 @@
       <c r="O8" s="7">
         <v>6.5</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7">
         <v>10</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>18</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="5">
@@ -1153,10 +1149,10 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="7">
+        <v>10</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="5">
         <v>15</v>
@@ -1550,7 +1546,7 @@
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>307.3</v>
+        <v>288.17</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1226,7 +1226,9 @@
       <c r="P11" s="2">
         <v>14</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="7">
+        <v>12</v>
+      </c>
       <c r="R11" s="2">
         <v>17</v>
       </c>
@@ -1268,7 +1270,9 @@
       <c r="P12" s="2">
         <v>6</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="7">
+        <v>10</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5">
@@ -1374,7 +1378,9 @@
       <c r="P15" s="2">
         <v>7</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="7">
+        <v>5.07</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="5">
         <v>6</v>
@@ -1412,8 +1418,8 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2">
-        <v>8</v>
+      <c r="Q16" s="7">
+        <v>10.07</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="5"/>
@@ -1546,7 +1552,7 @@
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>288.17</v>
+        <v>317.31</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="R3" sqref="R3:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -851,8 +851,8 @@
       <c r="Q3" s="7">
         <v>17.8</v>
       </c>
-      <c r="R3" s="2">
-        <v>15</v>
+      <c r="R3" s="7">
+        <v>12</v>
       </c>
       <c r="S3" s="5">
         <v>12</v>
@@ -909,8 +909,8 @@
         <v>7</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2">
-        <v>13</v>
+      <c r="R4" s="7">
+        <v>100600</v>
       </c>
       <c r="S4" s="5">
         <v>10</v>
@@ -973,7 +973,7 @@
       <c r="Q5" s="7">
         <v>20.07</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="7">
         <v>6</v>
       </c>
       <c r="S5" s="5">
@@ -1031,8 +1031,8 @@
       <c r="Q6" s="7">
         <v>11</v>
       </c>
-      <c r="R6" s="2">
-        <v>20</v>
+      <c r="R6" s="7">
+        <v>11</v>
       </c>
       <c r="S6" s="5">
         <v>9</v>
@@ -1073,7 +1073,7 @@
       <c r="Q7" s="2">
         <v>14</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="5">
         <v>9</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>317.31</v>
+        <v>100892.31000000001</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R7"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="7">
-        <v>100600</v>
+        <v>10.06</v>
       </c>
       <c r="S4" s="5">
         <v>10</v>
@@ -1229,8 +1229,8 @@
       <c r="Q11" s="7">
         <v>12</v>
       </c>
-      <c r="R11" s="2">
-        <v>17</v>
+      <c r="R11" s="7">
+        <v>10</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5">
@@ -1489,7 +1489,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2">
+      <c r="R18" s="7">
         <v>9</v>
       </c>
       <c r="S18" s="5"/>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>100892.31000000001</v>
+        <v>295.37</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -854,8 +854,8 @@
       <c r="R3" s="7">
         <v>12</v>
       </c>
-      <c r="S3" s="5">
-        <v>12</v>
+      <c r="S3" s="7">
+        <v>19.899999999999999</v>
       </c>
       <c r="T3" s="5">
         <v>12</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>355</v>
+        <v>362.9</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -976,8 +976,8 @@
       <c r="R5" s="7">
         <v>6</v>
       </c>
-      <c r="S5" s="5">
-        <v>6</v>
+      <c r="S5" s="7">
+        <v>10</v>
       </c>
       <c r="T5" s="5">
         <v>5</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>362.9</v>
+        <v>366.9</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -912,8 +912,8 @@
       <c r="R4" s="7">
         <v>10.06</v>
       </c>
-      <c r="S4" s="5">
-        <v>10</v>
+      <c r="S4" s="7">
+        <v>11.7</v>
       </c>
       <c r="T4" s="5">
         <v>10</v>
@@ -1034,8 +1034,8 @@
       <c r="R6" s="7">
         <v>11</v>
       </c>
-      <c r="S6" s="5">
-        <v>9</v>
+      <c r="S6" s="7">
+        <v>13</v>
       </c>
       <c r="T6" s="5">
         <v>11</v>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="5">
+      <c r="S8" s="7">
         <v>10</v>
       </c>
       <c r="T8" s="5">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>366.9</v>
+        <v>372.6</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1154,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="R9" s="2"/>
-      <c r="S9" s="5">
+      <c r="S9" s="7">
         <v>15</v>
       </c>
       <c r="T9" s="5"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -857,8 +857,8 @@
       <c r="S3" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="T3" s="5">
-        <v>12</v>
+      <c r="T3" s="7">
+        <v>13.9</v>
       </c>
       <c r="U3" s="5">
         <v>10</v>
@@ -1116,11 +1116,9 @@
         <v>10</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="7">
-        <v>10</v>
-      </c>
-      <c r="T8" s="5">
-        <v>17</v>
+      <c r="S8" s="5"/>
+      <c r="T8" s="7">
+        <v>10</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -1154,10 +1152,10 @@
         <v>10</v>
       </c>
       <c r="R9" s="2"/>
-      <c r="S9" s="7">
+      <c r="S9" s="5"/>
+      <c r="T9" s="7">
         <v>15</v>
       </c>
-      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
@@ -1556,7 +1554,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>372.6</v>
+        <v>357.5</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -979,8 +979,8 @@
       <c r="S5" s="7">
         <v>10</v>
       </c>
-      <c r="T5" s="5">
-        <v>5</v>
+      <c r="T5" s="8">
+        <v>10</v>
       </c>
       <c r="U5" s="5">
         <v>5</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>357.5</v>
+        <v>362.5</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -915,8 +915,8 @@
       <c r="S4" s="7">
         <v>11.7</v>
       </c>
-      <c r="T4" s="5">
-        <v>10</v>
+      <c r="T4" s="8">
+        <v>5</v>
       </c>
       <c r="U4" s="5">
         <v>15</v>
@@ -1037,8 +1037,8 @@
       <c r="S6" s="7">
         <v>13</v>
       </c>
-      <c r="T6" s="5">
-        <v>11</v>
+      <c r="T6" s="8">
+        <v>18</v>
       </c>
       <c r="U6" s="5">
         <v>11</v>
@@ -1187,9 +1187,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="5">
-        <v>14</v>
-      </c>
+      <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
@@ -1231,9 +1229,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="T11" s="5">
-        <v>15</v>
-      </c>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5">
         <v>15</v>
@@ -1273,9 +1269,7 @@
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="5">
-        <v>10</v>
-      </c>
+      <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
@@ -1305,9 +1299,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="5">
-        <v>9</v>
-      </c>
+      <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
@@ -1421,9 +1413,7 @@
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="5">
-        <v>5</v>
-      </c>
+      <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
@@ -1525,9 +1515,7 @@
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5">
-        <v>32</v>
-      </c>
+      <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
@@ -1554,7 +1542,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>362.5</v>
+        <v>279.5</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1116,11 +1116,15 @@
         <v>10</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="8">
+        <v>10</v>
+      </c>
       <c r="T8" s="7">
         <v>10</v>
       </c>
-      <c r="U8" s="5"/>
+      <c r="U8" s="5">
+        <v>10</v>
+      </c>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22">
@@ -1542,7 +1546,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>279.5</v>
+        <v>299.5</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -860,8 +860,8 @@
       <c r="T3" s="7">
         <v>13.9</v>
       </c>
-      <c r="U3" s="5">
-        <v>10</v>
+      <c r="U3" s="8">
+        <v>16</v>
       </c>
       <c r="V3" s="5">
         <v>10</v>
@@ -918,7 +918,7 @@
       <c r="T4" s="8">
         <v>5</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="8">
         <v>15</v>
       </c>
       <c r="V4" s="5">
@@ -982,8 +982,8 @@
       <c r="T5" s="8">
         <v>10</v>
       </c>
-      <c r="U5" s="5">
-        <v>5</v>
+      <c r="U5" s="8">
+        <v>18</v>
       </c>
       <c r="V5" s="5">
         <v>5</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>299.5</v>
+        <v>318.5</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -863,8 +863,8 @@
       <c r="U3" s="8">
         <v>16</v>
       </c>
-      <c r="V3" s="5">
-        <v>10</v>
+      <c r="V3" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -921,8 +921,8 @@
       <c r="U4" s="8">
         <v>15</v>
       </c>
-      <c r="V4" s="5">
-        <v>11</v>
+      <c r="V4" s="8">
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -985,8 +985,8 @@
       <c r="U5" s="8">
         <v>18</v>
       </c>
-      <c r="V5" s="5">
-        <v>5</v>
+      <c r="V5" s="8">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1043,8 +1043,8 @@
       <c r="U6" s="5">
         <v>11</v>
       </c>
-      <c r="V6" s="5">
-        <v>8</v>
+      <c r="V6" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>318.5</v>
+        <v>340.6</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1040,9 +1040,7 @@
       <c r="T6" s="8">
         <v>18</v>
       </c>
-      <c r="U6" s="5">
-        <v>11</v>
-      </c>
+      <c r="U6" s="5"/>
       <c r="V6" s="8">
         <v>15</v>
       </c>
@@ -1074,13 +1072,9 @@
         <v>14</v>
       </c>
       <c r="R7" s="7"/>
-      <c r="S7" s="5">
-        <v>9</v>
-      </c>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5">
-        <v>11</v>
-      </c>
+      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22">
@@ -1122,9 +1116,7 @@
       <c r="T8" s="7">
         <v>10</v>
       </c>
-      <c r="U8" s="5">
-        <v>10</v>
-      </c>
+      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22">
@@ -1185,9 +1177,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2">
-        <v>14</v>
-      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="5"/>
@@ -1223,9 +1213,7 @@
         <v>9</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="2">
-        <v>14</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="7">
         <v>12</v>
       </c>
@@ -1235,9 +1223,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="5">
-        <v>15</v>
-      </c>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
@@ -1265,9 +1251,7 @@
         <v>12</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="2">
-        <v>6</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="7">
         <v>10</v>
       </c>
@@ -1336,9 +1320,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5">
-        <v>12</v>
-      </c>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22">
@@ -1369,16 +1351,12 @@
       <c r="O15" s="8">
         <v>11</v>
       </c>
-      <c r="P15" s="2">
-        <v>7</v>
-      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" s="7">
         <v>5.07</v>
       </c>
       <c r="R15" s="2"/>
-      <c r="S15" s="5">
-        <v>6</v>
-      </c>
+      <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -1419,7 +1397,9 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="V16" s="8">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
@@ -1443,16 +1423,12 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2">
-        <v>5</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="5">
-        <v>13</v>
-      </c>
+      <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:23">
@@ -1486,9 +1462,7 @@
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5">
-        <v>12</v>
-      </c>
+      <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:23">
@@ -1514,9 +1488,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2">
-        <v>16</v>
-      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -1542,11 +1514,11 @@
       </c>
       <c r="R20">
         <f>SUM(O3:R19)</f>
-        <v>295.37</v>
+        <v>233.37</v>
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>340.6</v>
+        <v>256.2</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1222,7 +1222,9 @@
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="U11" s="7">
+        <v>10</v>
+      </c>
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22">
@@ -1257,7 +1259,9 @@
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="T12" s="7">
+        <v>10</v>
+      </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
@@ -1320,7 +1324,9 @@
       <c r="R14" s="2"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="U14" s="7">
+        <v>13</v>
+      </c>
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22">
@@ -1357,7 +1363,9 @@
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="T15" s="7">
+        <v>11</v>
+      </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
@@ -1462,7 +1470,9 @@
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="7">
+        <v>8</v>
+      </c>
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:23">
@@ -1518,7 +1528,7 @@
       </c>
       <c r="V20">
         <f>SUM(S3:V19)</f>
-        <v>256.2</v>
+        <v>308.20000000000005</v>
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>淄博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -701,7 +705,7 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:26">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -740,8 +744,14 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -802,8 +812,20 @@
       <c r="V2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +888,16 @@
       <c r="V3" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="7">
+        <v>11</v>
+      </c>
+      <c r="X3" s="7">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -924,8 +954,14 @@
       <c r="V4" s="8">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="7"/>
+      <c r="X4" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1024,14 @@
       <c r="V5" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="7">
+        <v>11</v>
+      </c>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1044,8 +1086,14 @@
       <c r="V6" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="7">
+        <v>12</v>
+      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1076,8 +1124,12 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1118,8 +1170,12 @@
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="8"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1154,8 +1210,12 @@
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="5"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1184,8 +1244,12 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1290,12 @@
         <v>10</v>
       </c>
       <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1332,12 @@
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="5"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1294,8 +1366,12 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1328,8 +1404,12 @@
         <v>13</v>
       </c>
       <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1368,8 +1448,12 @@
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="5"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1408,8 +1492,12 @@
       <c r="V16" s="8">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,8 +1526,12 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,8 +1566,12 @@
         <v>8</v>
       </c>
       <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1504,8 +1600,12 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="C20">
         <f>SUM(C3:C19)</f>
         <v>223</v>
@@ -1532,10 +1632,10 @@
       </c>
       <c r="W20">
         <f>SUM(W3:W19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="D25" t="s">
         <v>46</v>
       </c>
@@ -1546,7 +1646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:26">
       <c r="C26" t="s">
         <v>49</v>
       </c>
@@ -1560,7 +1660,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:26">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -1574,7 +1674,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:26">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -1589,7 +1689,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -372,13 +372,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -697,7 +697,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -715,41 +715,41 @@
       <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="13"/>
@@ -894,7 +894,9 @@
       <c r="X3" s="7">
         <v>18</v>
       </c>
-      <c r="Y3" s="8"/>
+      <c r="Y3" s="8">
+        <v>10</v>
+      </c>
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26">
@@ -954,11 +956,13 @@
       <c r="V4" s="8">
         <v>8.1</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="5"/>
       <c r="X4" s="8">
         <v>10</v>
       </c>
-      <c r="Y4" s="8"/>
+      <c r="Y4" s="7">
+        <v>15</v>
+      </c>
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26">
@@ -1028,7 +1032,9 @@
         <v>11</v>
       </c>
       <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="8">
+        <v>12</v>
+      </c>
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26">
@@ -1170,8 +1176,8 @@
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="7"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
@@ -1211,7 +1217,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="7"/>
+      <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
@@ -1292,7 +1298,7 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26">
@@ -1333,7 +1339,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
@@ -1406,7 +1412,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26">
@@ -1449,7 +1455,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
@@ -1568,7 +1574,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -697,7 +697,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1178,7 +1178,9 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="Y8" s="5">
+        <v>12</v>
+      </c>
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26">
@@ -1500,7 +1502,9 @@
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="Y16" s="5">
+        <v>10</v>
+      </c>
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -697,7 +697,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1096,7 +1096,9 @@
         <v>12</v>
       </c>
       <c r="X6" s="8"/>
-      <c r="Y6" s="5"/>
+      <c r="Y6" s="8">
+        <v>15</v>
+      </c>
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26">
@@ -1178,7 +1180,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5">
+      <c r="Y8" s="8">
         <v>12</v>
       </c>
       <c r="Z8" s="5"/>
@@ -1220,7 +1222,9 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="Y9" s="8">
+        <v>13</v>
+      </c>
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -697,7 +697,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1304,7 +1304,9 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="Y11" s="7">
+        <v>13</v>
+      </c>
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26">
@@ -1462,7 +1464,9 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="Y15" s="7">
+        <v>11</v>
+      </c>
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26">
@@ -1506,7 +1510,7 @@
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="5">
+      <c r="Y16" s="7">
         <v>10</v>
       </c>
       <c r="Z16" s="8"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1348,7 +1348,9 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="Y12" s="8">
+        <v>15</v>
+      </c>
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -897,7 +897,9 @@
       <c r="Y3" s="8">
         <v>10</v>
       </c>
-      <c r="Z3" s="8"/>
+      <c r="Z3" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
@@ -1035,7 +1037,9 @@
       <c r="Y5" s="8">
         <v>12</v>
       </c>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -705,7 +709,7 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:30">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -750,8 +754,14 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -824,8 +834,20 @@
       <c r="Z2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -900,8 +922,16 @@
       <c r="Z3" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -966,8 +996,12 @@
         <v>15</v>
       </c>
       <c r="Z4" s="8"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,8 +1074,16 @@
       <c r="Z5" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="8">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1146,14 @@
         <v>15</v>
       </c>
       <c r="Z6" s="8"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="8">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1140,8 +1188,12 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1188,8 +1240,12 @@
         <v>12</v>
       </c>
       <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1230,8 +1286,12 @@
         <v>13</v>
       </c>
       <c r="Z9" s="5"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1264,8 +1324,14 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1312,8 +1378,12 @@
         <v>13</v>
       </c>
       <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1356,8 +1426,12 @@
         <v>15</v>
       </c>
       <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1464,12 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,8 +1506,12 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1474,8 +1556,12 @@
         <v>11</v>
       </c>
       <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1520,8 +1606,14 @@
         <v>10</v>
       </c>
       <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1554,8 +1646,12 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1594,8 +1690,12 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,8 +1728,12 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="C20">
         <f>SUM(C3:C19)</f>
         <v>223</v>
@@ -1659,7 +1763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:30">
       <c r="D25" t="s">
         <v>46</v>
       </c>
@@ -1670,7 +1774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:30">
       <c r="C26" t="s">
         <v>49</v>
       </c>
@@ -1684,7 +1788,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:30">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -1698,7 +1802,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:30">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -1713,7 +1817,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1611,7 +1611,9 @@
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
+      <c r="AD16" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
@@ -1818,16 +1820,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="3月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,10 @@
   </si>
   <si>
     <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,22 +380,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -709,14 +713,14 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:34">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -724,47 +728,53 @@
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -846,8 +856,20 @@
       <c r="AD2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -930,8 +952,12 @@
       </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1000,8 +1026,12 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,8 +1112,12 @@
       </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1152,8 +1186,12 @@
       </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1192,8 +1230,12 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1244,8 +1286,12 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1290,8 +1336,12 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1330,8 +1380,12 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1382,8 +1436,12 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1430,8 +1488,12 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1468,8 +1530,12 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1510,8 +1576,12 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1560,8 +1630,12 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1614,8 +1688,12 @@
       <c r="AD16" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1652,8 +1730,12 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1696,8 +1778,12 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1734,8 +1820,12 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+    </row>
+    <row r="20" spans="1:34">
       <c r="C20">
         <f>SUM(C3:C19)</f>
         <v>223</v>
@@ -1765,7 +1855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:34">
       <c r="D25" t="s">
         <v>46</v>
       </c>
@@ -1776,7 +1866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:34">
       <c r="C26" t="s">
         <v>49</v>
       </c>
@@ -1790,7 +1880,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:34">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1894,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:34">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -1819,17 +1909,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -380,22 +380,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -714,13 +714,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -728,53 +728,53 @@
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -952,7 +952,9 @@
       </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
+      <c r="AE3" s="7">
+        <v>9</v>
+      </c>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
@@ -1112,7 +1114,9 @@
       </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
+      <c r="AE5" s="7">
+        <v>10</v>
+      </c>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
@@ -1910,17 +1914,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="3月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -241,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,27 +385,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -701,26 +706,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -728,53 +733,53 @@
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1191,7 +1196,9 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
+      <c r="AF6" s="7">
+        <v>15</v>
+      </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
     </row>
@@ -1693,7 +1700,9 @@
         <v>10</v>
       </c>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
+      <c r="AF16" s="7">
+        <v>10.8</v>
+      </c>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
     </row>
@@ -1914,46 +1923,61 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="3月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -246,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,27 +385,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -706,26 +706,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -733,53 +734,53 @@
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1123,9 @@
       <c r="AE5" s="7">
         <v>10</v>
       </c>
-      <c r="AF5" s="5"/>
+      <c r="AF5" s="7">
+        <v>10.5</v>
+      </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
     </row>
@@ -1298,7 +1301,9 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
+      <c r="AF8" s="7">
+        <v>10</v>
+      </c>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
     </row>
@@ -1448,7 +1453,9 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
+      <c r="AF11" s="7">
+        <v>15.8</v>
+      </c>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
     </row>
@@ -1642,7 +1649,9 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
+      <c r="AF15" s="7">
+        <v>13</v>
+      </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
     </row>
@@ -1923,17 +1932,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1947,12 +1956,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1965,12 +1974,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -710,7 +710,7 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -963,7 +963,9 @@
       </c>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
+      <c r="AH3" s="8">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
@@ -1036,7 +1038,9 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
+      <c r="AG4" s="5">
+        <v>18.5</v>
+      </c>
       <c r="AH4" s="5"/>
     </row>
     <row r="5" spans="1:34">
@@ -1127,7 +1131,9 @@
         <v>10.5</v>
       </c>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
+      <c r="AH5" s="5">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
@@ -1202,7 +1208,9 @@
       <c r="AF6" s="7">
         <v>15</v>
       </c>
-      <c r="AG6" s="5"/>
+      <c r="AG6" s="5">
+        <v>16.5</v>
+      </c>
       <c r="AH6" s="5"/>
     </row>
     <row r="7" spans="1:34">
@@ -1304,8 +1312,12 @@
       <c r="AF8" s="7">
         <v>10</v>
       </c>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
+      <c r="AG8" s="5">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
@@ -1354,8 +1366,12 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
+      <c r="AG9" s="5">
+        <v>15</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
@@ -1457,7 +1473,9 @@
         <v>15.8</v>
       </c>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
+      <c r="AH11" s="5">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
@@ -1508,7 +1526,9 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
+      <c r="AG12" s="5">
+        <v>16</v>
+      </c>
       <c r="AH12" s="5"/>
     </row>
     <row r="13" spans="1:34">
@@ -1596,7 +1616,9 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
+      <c r="AG14" s="5">
+        <v>14.8</v>
+      </c>
       <c r="AH14" s="5"/>
     </row>
     <row r="15" spans="1:34">
@@ -1653,7 +1675,9 @@
         <v>13</v>
       </c>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
+      <c r="AH15" s="5">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
@@ -1713,7 +1737,9 @@
         <v>10.8</v>
       </c>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
+      <c r="AH16" s="5">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="1" t="s">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -385,22 +385,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +710,7 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -720,13 +720,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -734,53 +734,53 @@
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-      <c r="AG4" s="5">
+      <c r="AG4" s="7">
         <v>18.5</v>
       </c>
       <c r="AH4" s="5"/>
@@ -1131,7 +1131,7 @@
         <v>10.5</v>
       </c>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5">
+      <c r="AH5" s="7">
         <v>17.5</v>
       </c>
     </row>
@@ -1369,8 +1369,8 @@
       <c r="AG9" s="5">
         <v>15</v>
       </c>
-      <c r="AH9" s="5">
-        <v>13</v>
+      <c r="AH9" s="8">
+        <v>18.5</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1958,17 +1958,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="3月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,14 +240,18 @@
   </si>
   <si>
     <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +273,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,8 +392,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -385,6 +409,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,15 +424,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -706,81 +734,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:38">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="13" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -874,8 +908,20 @@
       <c r="AH2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AI2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -966,8 +1012,12 @@
       <c r="AH3" s="8">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1042,8 +1092,14 @@
         <v>18.5</v>
       </c>
       <c r="AH4" s="5"/>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AI4" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1134,8 +1190,12 @@
       <c r="AH5" s="7">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1212,8 +1272,14 @@
         <v>16.5</v>
       </c>
       <c r="AH6" s="5"/>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AI6" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1256,8 +1322,12 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1318,8 +1388,12 @@
       <c r="AH8" s="5">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1372,8 +1446,12 @@
       <c r="AH9" s="8">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,8 +1494,12 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-    </row>
-    <row r="11" spans="1:34">
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1476,8 +1558,12 @@
       <c r="AH11" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1530,8 +1616,12 @@
         <v>16</v>
       </c>
       <c r="AH12" s="5"/>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1572,8 +1662,12 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1620,8 +1714,12 @@
         <v>14.8</v>
       </c>
       <c r="AH14" s="5"/>
-    </row>
-    <row r="15" spans="1:34">
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1678,8 +1776,14 @@
       <c r="AH15" s="5">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="AI15" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1740,8 +1844,12 @@
       <c r="AH16" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:34">
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1782,8 +1890,12 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-    </row>
-    <row r="18" spans="1:34">
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1830,8 +1942,12 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
-    </row>
-    <row r="19" spans="1:34">
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1872,8 +1988,12 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-    </row>
-    <row r="20" spans="1:34">
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38">
       <c r="C20">
         <f>SUM(C3:C19)</f>
         <v>223</v>
@@ -1903,7 +2023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:38">
       <c r="D25" t="s">
         <v>46</v>
       </c>
@@ -1914,7 +2034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:38">
       <c r="C26" t="s">
         <v>49</v>
       </c>
@@ -1928,7 +2048,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:38">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -1942,7 +2062,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:38">
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -1957,22 +2077,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1982,12 +2103,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2000,12 +2121,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="3月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -250,8 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,11 +429,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -734,16 +734,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,7 +1013,9 @@
         <v>13.5</v>
       </c>
       <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
+      <c r="AJ3" s="8">
+        <v>16.5</v>
+      </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
@@ -1268,11 +1270,11 @@
       <c r="AF6" s="7">
         <v>15</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AG6" s="8">
         <v>16.5</v>
       </c>
       <c r="AH6" s="5"/>
-      <c r="AI6" s="5">
+      <c r="AI6" s="8">
         <v>15.3</v>
       </c>
       <c r="AJ6" s="5"/>
@@ -1322,7 +1324,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="8"/>
+      <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
@@ -1382,10 +1384,10 @@
       <c r="AF8" s="7">
         <v>10</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AG8" s="8">
         <v>12</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AH8" s="8">
         <v>15.5</v>
       </c>
       <c r="AI8" s="5"/>
@@ -1440,7 +1442,7 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="5">
+      <c r="AG9" s="8">
         <v>15</v>
       </c>
       <c r="AH9" s="8">
@@ -1555,7 +1557,7 @@
         <v>15.8</v>
       </c>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="5">
+      <c r="AH11" s="8">
         <v>16</v>
       </c>
       <c r="AI11" s="5"/>
@@ -1612,7 +1614,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="5">
+      <c r="AG12" s="8">
         <v>16</v>
       </c>
       <c r="AH12" s="5"/>
@@ -1710,7 +1712,7 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="5">
+      <c r="AG14" s="8">
         <v>14.8</v>
       </c>
       <c r="AH14" s="5"/>
@@ -1773,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="5">
+      <c r="AH15" s="8">
         <v>16.3</v>
       </c>
       <c r="AI15" s="8">
@@ -1841,7 +1843,7 @@
         <v>10.8</v>
       </c>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="5">
+      <c r="AH16" s="8">
         <v>13.2</v>
       </c>
       <c r="AI16" s="5"/>
@@ -2103,12 +2105,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,12 +2123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="3月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,14 +244,41 @@
   </si>
   <si>
     <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大侯车队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨金鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作小全车队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭松柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松柏运输</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +314,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,14 +426,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -427,13 +462,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -734,20 +772,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:41">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -811,7 +849,7 @@
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:41">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -921,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1004,22 +1042,22 @@
       </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="7">
+      <c r="AE3" s="5">
         <v>9</v>
       </c>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="8">
+      <c r="AH3" s="5">
         <v>13.5</v>
       </c>
       <c r="AI3" s="5"/>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="5">
         <v>16.5</v>
       </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1090,18 +1128,18 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-      <c r="AG4" s="7">
+      <c r="AG4" s="5">
         <v>18.5</v>
       </c>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="8">
+      <c r="AI4" s="5">
         <v>15.5</v>
       </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1182,22 +1220,24 @@
       </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="7">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="7">
+      <c r="AE5" s="5">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="5">
         <v>10.5</v>
       </c>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="7">
+      <c r="AH5" s="5">
         <v>17.5</v>
       </c>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
+      <c r="AJ5" s="5">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,21 +1307,21 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="7">
+      <c r="AF6" s="5">
         <v>15</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="5">
         <v>16.5</v>
       </c>
       <c r="AH6" s="5"/>
-      <c r="AI6" s="8">
+      <c r="AI6" s="5">
         <v>15.3</v>
       </c>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1369,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1381,21 +1421,23 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="7">
-        <v>10</v>
-      </c>
-      <c r="AG8" s="8">
+      <c r="AF8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="5">
         <v>12</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="5">
         <v>15.5</v>
       </c>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
+      <c r="AJ8" s="5">
+        <v>10.1</v>
+      </c>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1442,18 +1484,19 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="8">
+      <c r="AG9" s="5">
         <v>15</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="5">
         <v>18.5</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AO9" s="16"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,7 +1544,7 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1553,11 +1596,11 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="7">
+      <c r="AF11" s="5">
         <v>15.8</v>
       </c>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="8">
+      <c r="AH11" s="5">
         <v>16</v>
       </c>
       <c r="AI11" s="5"/>
@@ -1565,7 +1608,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1614,7 +1657,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="8">
+      <c r="AG12" s="5">
         <v>16</v>
       </c>
       <c r="AH12" s="5"/>
@@ -1623,7 +1666,7 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1712,7 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1712,7 +1755,7 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="8">
+      <c r="AG14" s="5">
         <v>14.8</v>
       </c>
       <c r="AH14" s="5"/>
@@ -1721,7 +1764,7 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1771,21 +1814,21 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="7">
+      <c r="AF15" s="5">
         <v>13</v>
       </c>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="8">
+      <c r="AH15" s="5">
         <v>16.3</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AI15" s="5">
         <v>12.5</v>
       </c>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1839,15 +1882,17 @@
         <v>10</v>
       </c>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="7">
+      <c r="AF16" s="5">
         <v>10.8</v>
       </c>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="8">
+      <c r="AH16" s="5">
         <v>13.2</v>
       </c>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
+      <c r="AJ16" s="5">
+        <v>14.8</v>
+      </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
@@ -1996,34 +2041,166 @@
       <c r="AL19" s="5"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="C20">
-        <f>SUM(C3:C19)</f>
-        <v>223</v>
-      </c>
-      <c r="F20">
+      <c r="A20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="15">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
         <f>SUM(D3:F19)</f>
         <v>124.5</v>
       </c>
-      <c r="J20">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
         <f>SUM(G3:J19)</f>
         <v>291.18000000000006</v>
       </c>
-      <c r="N20">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
         <f>SUM(K3:N19)</f>
         <v>144.5</v>
       </c>
-      <c r="R20">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1">
         <f>SUM(O3:R19)</f>
         <v>233.37</v>
       </c>
-      <c r="V20">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
         <f>SUM(S3:V19)</f>
         <v>308.20000000000005</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <f>SUM(W3:W19)</f>
         <v>34</v>
       </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="15">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="15">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="25" spans="1:38">
       <c r="D25" t="s">
@@ -2105,12 +2282,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2123,12 +2300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -444,6 +444,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,8 +464,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -776,7 +776,7 @@
   <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -786,73 +786,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="12" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
-      <c r="AO9" s="16"/>
+      <c r="AO9" s="10"/>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
@@ -2041,13 +2041,13 @@
       <c r="AL19" s="5"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="9">
         <v>16</v>
       </c>
       <c r="D20" s="1"/>
@@ -2107,13 +2107,13 @@
       <c r="AL20" s="5"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="9">
         <v>22</v>
       </c>
       <c r="D21" s="1"/>
@@ -2155,13 +2155,13 @@
       <c r="AL21" s="5"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="9">
         <v>25</v>
       </c>
       <c r="D22" s="1"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1054,7 +1054,9 @@
       <c r="AJ3" s="5">
         <v>16.5</v>
       </c>
-      <c r="AK3" s="5"/>
+      <c r="AK3" s="5">
+        <v>16.5</v>
+      </c>
       <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="1:41">
@@ -1318,7 +1320,9 @@
         <v>15.3</v>
       </c>
       <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
+      <c r="AK6" s="5">
+        <v>14.5</v>
+      </c>
       <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:41">
@@ -1662,8 +1666,12 @@
       </c>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
+      <c r="AJ12" s="5">
+        <v>13</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>15</v>
+      </c>
       <c r="AL12" s="5"/>
     </row>
     <row r="13" spans="1:41">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13"/>
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1057,7 +1057,9 @@
       <c r="AK3" s="5">
         <v>16.5</v>
       </c>
-      <c r="AL3" s="5"/>
+      <c r="AL3" s="5">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
@@ -1138,8 +1140,12 @@
         <v>15.5</v>
       </c>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AK4" s="5">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
@@ -1323,7 +1329,9 @@
       <c r="AK6" s="5">
         <v>14.5</v>
       </c>
-      <c r="AL6" s="5"/>
+      <c r="AL6" s="5">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
@@ -1438,7 +1446,9 @@
       <c r="AJ8" s="5">
         <v>10.1</v>
       </c>
-      <c r="AK8" s="5"/>
+      <c r="AK8" s="5">
+        <v>17</v>
+      </c>
       <c r="AL8" s="5"/>
     </row>
     <row r="9" spans="1:41">
@@ -1496,7 +1506,9 @@
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
+      <c r="AK9" s="5">
+        <v>19</v>
+      </c>
       <c r="AL9" s="5"/>
       <c r="AO9" s="10"/>
     </row>
@@ -1610,7 +1622,9 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AL11" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,14 @@
   </si>
   <si>
     <t>松柏运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田乃盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小车队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -425,6 +433,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -434,7 +453,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -464,6 +483,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -773,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1144,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="AL4" s="5">
-        <v>15</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1686,7 +1708,9 @@
       <c r="AK12" s="5">
         <v>15</v>
       </c>
-      <c r="AL12" s="5"/>
+      <c r="AL12" s="5">
+        <v>18.899999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
@@ -1916,7 +1940,9 @@
         <v>14.8</v>
       </c>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AL16" s="5">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="1" t="s">
@@ -2174,7 +2200,9 @@
         <v>5.5</v>
       </c>
       <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AL21" s="5">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="9" t="s">
@@ -2222,58 +2250,108 @@
         <v>6.3</v>
       </c>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-    </row>
-    <row r="25" spans="1:38">
-      <c r="D25" t="s">
+      <c r="AL22" s="5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="19">
+        <v>6</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>47</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38">
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26">
-        <v>6.07</v>
-      </c>
-      <c r="E26">
-        <v>6.07</v>
-      </c>
-      <c r="F26">
-        <v>6.18</v>
       </c>
     </row>
     <row r="27" spans="1:38">
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>5.76</v>
+        <v>6.07</v>
       </c>
       <c r="E27">
-        <v>5.81</v>
+        <v>6.07</v>
       </c>
       <c r="F27">
-        <v>5.99</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="28" spans="1:38">
       <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>5.76</v>
+      </c>
+      <c r="E28">
+        <v>5.81</v>
+      </c>
+      <c r="F28">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>4.97</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>5.85</v>
       </c>
     </row>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="3月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -282,11 +282,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -464,7 +464,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,17 +486,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -794,87 +794,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+      <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="14" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="11" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11" t="s">
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1580,9 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AL10" s="5">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
@@ -1808,7 +1810,9 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AL14" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
@@ -2040,7 +2044,9 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AL18" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="1" t="s">
@@ -2086,7 +2092,9 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AL19" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="9" t="s">
@@ -2255,50 +2263,50 @@
       </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <v>6</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2382,12 +2390,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,12 +2408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郑安平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高欣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,22 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海卿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马茹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨立成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李喜盈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长远物流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李师傅车队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>捷讯物流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈氏速运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,14 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞飞同城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥博物流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盈佳速运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,18 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淄博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,11 +227,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>田乃盈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小车队</t>
+    <t>5月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,10 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,13 +271,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -433,27 +375,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -464,10 +394,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,11 +413,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
@@ -795,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -807,186 +732,204 @@
     <col min="4" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:42">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="17" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="14" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>35</v>
@@ -1082,13 +1025,21 @@
       <c r="AL3" s="5">
         <v>16.5</v>
       </c>
+      <c r="AM3" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
@@ -1168,13 +1119,21 @@
       <c r="AL4" s="5">
         <v>32.5</v>
       </c>
+      <c r="AM4" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>26</v>
@@ -1266,13 +1225,21 @@
       </c>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
+      <c r="AM5" s="5">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>29</v>
@@ -1354,100 +1321,132 @@
       <c r="AL6" s="5">
         <v>16.5</v>
       </c>
+      <c r="AM6" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>17</v>
+      </c>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6">
+        <v>3.3</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="6">
+        <v>13</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="7">
+        <v>6.5</v>
+      </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2">
-        <v>14</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="Q7" s="7">
+        <v>10</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="8">
+        <v>10</v>
+      </c>
+      <c r="T7" s="7">
+        <v>10</v>
+      </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="Y7" s="8">
+        <v>12</v>
+      </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
+      <c r="AF7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>12</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>15.5</v>
+      </c>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
+      <c r="AJ7" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>17</v>
+      </c>
       <c r="AL7" s="5"/>
+      <c r="AM7" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="6">
-        <v>3.3</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6">
-        <v>13</v>
-      </c>
+      <c r="H8" s="6">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="7">
-        <v>6.5</v>
-      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="7">
         <v>10</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="8">
-        <v>10</v>
-      </c>
+      <c r="S8" s="5"/>
       <c r="T8" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -1455,62 +1454,72 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="5">
-        <v>10</v>
-      </c>
+      <c r="AF8" s="5"/>
       <c r="AG8" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH8" s="5">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="5">
-        <v>10.1</v>
-      </c>
+      <c r="AJ8" s="5"/>
       <c r="AK8" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" s="5"/>
+      <c r="AM8" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>18</v>
+      </c>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="7">
+        <v>15</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="6">
-        <v>12</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="6">
+        <v>15</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="7">
+        <v>9</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="7">
-        <v>10</v>
-      </c>
-      <c r="R9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="R9" s="7">
+        <v>10</v>
+      </c>
       <c r="S9" s="5"/>
-      <c r="T9" s="7">
-        <v>15</v>
-      </c>
-      <c r="U9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="7">
+        <v>10</v>
+      </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="8">
+      <c r="Y9" s="7">
         <v>13</v>
       </c>
       <c r="Z9" s="5"/>
@@ -1519,179 +1528,184 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5">
-        <v>15</v>
-      </c>
+      <c r="AF9" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="AG9" s="5"/>
       <c r="AH9" s="5">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
-      <c r="AK9" s="5">
-        <v>19</v>
-      </c>
-      <c r="AL9" s="5"/>
-      <c r="AO9" s="10"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5">
+        <v>15</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="6">
+        <v>10.3</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="7">
+        <v>12</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="7">
+        <v>10</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="T10" s="7">
+        <v>10</v>
+      </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="Y10" s="8">
+        <v>15</v>
+      </c>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="8">
-        <v>6</v>
-      </c>
+      <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
+      <c r="AG10" s="5">
+        <v>16</v>
+      </c>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
+      <c r="AJ10" s="5">
+        <v>13</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>15</v>
+      </c>
       <c r="AL10" s="5">
-        <v>15.5</v>
-      </c>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5">
+        <v>13</v>
+      </c>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7">
-        <v>15</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="6">
-        <v>15</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="7">
-        <v>9</v>
-      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="7">
-        <v>12</v>
-      </c>
-      <c r="R11" s="7">
-        <v>10</v>
-      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="7">
-        <v>10</v>
-      </c>
+      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="7">
-        <v>13</v>
-      </c>
+      <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="5">
-        <v>15.8</v>
-      </c>
+      <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="5">
-        <v>16</v>
-      </c>
+      <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-      <c r="AL11" s="5">
-        <v>15</v>
-      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6">
-        <v>10.3</v>
-      </c>
+      <c r="H12" s="6">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="7">
-        <v>12</v>
-      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="7">
-        <v>10</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="7">
-        <v>10</v>
-      </c>
-      <c r="U12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="7">
+        <v>13</v>
+      </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="8">
-        <v>15</v>
-      </c>
+      <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
@@ -1700,671 +1714,455 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5">
-        <v>16</v>
+        <v>14.8</v>
       </c>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-      <c r="AJ12" s="5">
-        <v>13</v>
-      </c>
-      <c r="AK12" s="5">
-        <v>15</v>
-      </c>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
       <c r="AL12" s="5">
-        <v>18.899999999999999</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="6">
+        <v>3.2</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="6">
+        <v>12.5</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="8">
+        <v>11</v>
+      </c>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="7">
+        <v>5.07</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="T13" s="7">
+        <v>11</v>
+      </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="Y13" s="7">
+        <v>11</v>
+      </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
+      <c r="AF13" s="5">
+        <v>13</v>
+      </c>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
+      <c r="AH13" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>12.5</v>
+      </c>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
+      <c r="AM13" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="6">
-        <v>16</v>
-      </c>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6">
+        <v>12</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="8">
+        <v>5</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="7">
+        <v>10.07</v>
+      </c>
       <c r="R14" s="2"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="7">
-        <v>13</v>
-      </c>
-      <c r="V14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8">
+        <v>14.6</v>
+      </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="Y14" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8">
+        <v>2</v>
+      </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
+      <c r="AD14" s="8">
+        <v>10</v>
+      </c>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5">
+      <c r="AF14" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5">
         <v>14.8</v>
       </c>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5">
-        <v>12</v>
-      </c>
+        <v>17.8</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>18</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="6">
-        <v>3.2</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="6">
-        <v>12.5</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="8">
-        <v>11</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="7">
-        <v>5.07</v>
-      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="7">
-        <v>11</v>
-      </c>
+      <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="7">
-        <v>11</v>
-      </c>
+      <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="5">
-        <v>13</v>
-      </c>
+      <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="5">
-        <v>16.3</v>
-      </c>
-      <c r="AI15" s="5">
-        <v>12.5</v>
-      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AL15" s="5">
+        <v>11</v>
+      </c>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
     </row>
-    <row r="16" spans="1:41">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:42">
+      <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6">
-        <v>12</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="8">
-        <v>5</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="7">
-        <v>10.07</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8">
-        <v>14.6</v>
-      </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="7">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="8">
-        <v>10</v>
-      </c>
+      <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <f>SUM(D3:F15)</f>
+        <v>124.5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <f>SUM(G3:J15)</f>
+        <v>281.18000000000006</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <f>SUM(K3:N15)</f>
+        <v>144.5</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1">
+        <f>SUM(O3:R15)</f>
+        <v>210.37</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
+        <f>SUM(S3:V15)</f>
+        <v>300.20000000000005</v>
+      </c>
+      <c r="W16" s="1">
+        <f>SUM(W3:W15)</f>
+        <v>34</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="5">
-        <v>10.8</v>
-      </c>
+      <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="5">
-        <v>13.2</v>
-      </c>
+      <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5">
-        <v>14.8</v>
+        <v>5.2</v>
       </c>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="5">
-        <v>17.8</v>
-      </c>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
     </row>
-    <row r="17" spans="1:38">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
+    <row r="17" spans="1:42">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
+      <c r="AJ17" s="5">
+        <v>5.5</v>
+      </c>
       <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AL17" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
     </row>
-    <row r="18" spans="1:38">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="6">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="7">
-        <v>9</v>
-      </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="7">
-        <v>8</v>
-      </c>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
+    <row r="18" spans="1:42">
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="9">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
+      <c r="AJ18" s="5">
+        <v>6.3</v>
+      </c>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5">
-        <v>18</v>
-      </c>
+        <v>9.85</v>
+      </c>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
     </row>
-    <row r="19" spans="1:38">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5">
-        <v>11</v>
+    <row r="21" spans="1:42">
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
-      <c r="A20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="9">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
-        <f>SUM(D3:F19)</f>
-        <v>124.5</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <f>SUM(G3:J19)</f>
-        <v>291.18000000000006</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1">
-        <f>SUM(K3:N19)</f>
-        <v>144.5</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1">
-        <f>SUM(O3:R19)</f>
-        <v>233.37</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1">
-        <f>SUM(S3:V19)</f>
-        <v>308.20000000000005</v>
-      </c>
-      <c r="W20" s="1">
-        <f>SUM(W3:W19)</f>
-        <v>34</v>
-      </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+    <row r="22" spans="1:42">
+      <c r="D22">
+        <v>6.07</v>
+      </c>
+      <c r="E22">
+        <v>6.07</v>
+      </c>
+      <c r="F22">
+        <v>6.18</v>
+      </c>
     </row>
-    <row r="21" spans="1:38">
-      <c r="A21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="9">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5">
-        <v>8.5</v>
+    <row r="23" spans="1:42">
+      <c r="D23">
+        <v>5.76</v>
+      </c>
+      <c r="E23">
+        <v>5.81</v>
+      </c>
+      <c r="F23">
+        <v>5.99</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
-      <c r="A22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="9">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5">
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38">
-      <c r="A23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="13">
-        <v>6</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38">
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38">
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27">
-        <v>6.07</v>
-      </c>
-      <c r="E27">
-        <v>6.07</v>
-      </c>
-      <c r="F27">
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38">
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>5.76</v>
-      </c>
-      <c r="E28">
-        <v>5.81</v>
-      </c>
-      <c r="F28">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38">
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29">
+    <row r="24" spans="1:42">
+      <c r="D24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E29">
+      <c r="E24">
         <v>4.97</v>
       </c>
-      <c r="F29">
+      <c r="F24">
         <v>5.85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/财务/流水.xlsx
+++ b/财务/流水.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="3月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,14 +228,38 @@
   </si>
   <si>
     <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶东海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦能车队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万路航运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天宝陆运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,11 +438,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -719,16 +743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1025,7 +1049,7 @@
       <c r="AL3" s="5">
         <v>16.5</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="7">
         <v>16.3</v>
       </c>
       <c r="AN3" s="5">
@@ -1119,9 +1143,7 @@
       <c r="AL4" s="5">
         <v>32.5</v>
       </c>
-      <c r="AM4" s="5">
-        <v>18.5</v>
-      </c>
+      <c r="AM4" s="5"/>
       <c r="AN4" s="5">
         <v>15.8</v>
       </c>
@@ -1321,7 +1343,7 @@
       <c r="AL6" s="5">
         <v>16.5</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AM6" s="7">
         <v>16.3</v>
       </c>
       <c r="AN6" s="5">
@@ -1995,7 +2017,9 @@
       </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
+      <c r="AM16" s="5">
+        <v>14.6</v>
+      </c>
       <c r="AN16" s="5">
         <v>5.2</v>
       </c>
@@ -2109,23 +2133,170 @@
       <c r="AL18" s="5">
         <v>9.85</v>
       </c>
-      <c r="AM18" s="5"/>
+      <c r="AM18" s="5">
+        <v>13.5</v>
+      </c>
       <c r="AN18" s="5">
         <v>6.3</v>
       </c>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
     </row>
+    <row r="19" spans="1:42">
+      <c r="A19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+    </row>
     <row r="21" spans="1:42">
-      <c r="D21" t="s">
+      <c r="A21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
     </row>
     <row r="22" spans="1:42">
       <c r="D22">
@@ -2188,12 +2359,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2206,12 +2377,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
